--- a/Code/Results/Cases/Case_8_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.356988348464256</v>
+        <v>3.363483000932206</v>
       </c>
       <c r="C2">
-        <v>0.8106083882089479</v>
+        <v>0.9402842452608411</v>
       </c>
       <c r="D2">
-        <v>0.008836931311908103</v>
+        <v>0.004521576882836165</v>
       </c>
       <c r="E2">
-        <v>0.01362454921340872</v>
+        <v>0.02121615275461575</v>
       </c>
       <c r="F2">
-        <v>3.062989964994728</v>
+        <v>2.144195202862576</v>
       </c>
       <c r="G2">
-        <v>0.0008390333270422889</v>
+        <v>0.03043281958722321</v>
       </c>
       <c r="H2">
-        <v>0.01639133501301671</v>
+        <v>0.007637560491085493</v>
       </c>
       <c r="I2">
-        <v>0.01997846908438827</v>
+        <v>0.008303929787598641</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.713739244099457</v>
+        <v>1.072569190840539</v>
       </c>
       <c r="L2">
-        <v>0.04888549049781865</v>
+        <v>0.4386534708775685</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.3664982591801476</v>
       </c>
       <c r="N2">
-        <v>0.3285021204531802</v>
+        <v>0.04836847588223314</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3892751664448042</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.934507283245466</v>
+        <v>2.933564384512238</v>
       </c>
       <c r="C3">
-        <v>0.702933578550585</v>
+        <v>0.8140533447549103</v>
       </c>
       <c r="D3">
-        <v>0.00757047169772207</v>
+        <v>0.004337891127829785</v>
       </c>
       <c r="E3">
-        <v>0.01190831219860566</v>
+        <v>0.0199620420777164</v>
       </c>
       <c r="F3">
-        <v>2.815633025905953</v>
+        <v>1.990807899916177</v>
       </c>
       <c r="G3">
-        <v>0.0008449896100396481</v>
+        <v>0.03926668762637231</v>
       </c>
       <c r="H3">
-        <v>0.02259016805109915</v>
+        <v>0.0109765274908858</v>
       </c>
       <c r="I3">
-        <v>0.0270213037811855</v>
+        <v>0.01161787801005509</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.594926541042796</v>
+        <v>1.018209102391552</v>
       </c>
       <c r="L3">
-        <v>0.04387918501188004</v>
+        <v>0.4272067324806841</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.3385884437729487</v>
       </c>
       <c r="N3">
-        <v>0.2895235232019928</v>
+        <v>0.0453426933792862</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3433486975526989</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.675996074184297</v>
+        <v>2.669572206860892</v>
       </c>
       <c r="C4">
-        <v>0.6377298481775142</v>
+        <v>0.7371268896466461</v>
       </c>
       <c r="D4">
-        <v>0.00679786998475862</v>
+        <v>0.004228315075296862</v>
       </c>
       <c r="E4">
-        <v>0.0108886173401293</v>
+        <v>0.01919396851710287</v>
       </c>
       <c r="F4">
-        <v>2.664101584842271</v>
+        <v>1.896046226056527</v>
       </c>
       <c r="G4">
-        <v>0.0008487636612859573</v>
+        <v>0.04544235642577288</v>
       </c>
       <c r="H4">
-        <v>0.02702243642621105</v>
+        <v>0.01340634881356878</v>
       </c>
       <c r="I4">
-        <v>0.0320599348825219</v>
+        <v>0.0140582302976493</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.521765766316889</v>
+        <v>0.9842488755226242</v>
       </c>
       <c r="L4">
-        <v>0.04082644863280649</v>
+        <v>0.4195722728268692</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3221769381191919</v>
       </c>
       <c r="N4">
-        <v>0.2657709897187885</v>
+        <v>0.0434637072668691</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3153307699102612</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.57085083705482</v>
+        <v>2.561961848852775</v>
       </c>
       <c r="C5">
-        <v>0.6119376832320427</v>
+        <v>0.7064143193197765</v>
       </c>
       <c r="D5">
-        <v>0.006412215127291176</v>
+        <v>0.004175336624594905</v>
       </c>
       <c r="E5">
-        <v>0.01047808891107316</v>
+        <v>0.01887977315209999</v>
       </c>
       <c r="F5">
-        <v>2.597784685112416</v>
+        <v>1.854068308512737</v>
       </c>
       <c r="G5">
-        <v>0.0008503434919246299</v>
+        <v>0.04815891042612241</v>
       </c>
       <c r="H5">
-        <v>0.02899378142104103</v>
+        <v>0.0144954489101386</v>
       </c>
       <c r="I5">
-        <v>0.03439388090527418</v>
+        <v>0.0152561953790169</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.488614173310424</v>
+        <v>0.9681626991150978</v>
       </c>
       <c r="L5">
-        <v>0.03952419119903006</v>
+        <v>0.4154430339211501</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.3149651234861466</v>
       </c>
       <c r="N5">
-        <v>0.2563744377352748</v>
+        <v>0.04265827315019877</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3041697698026553</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.553425480239866</v>
+        <v>2.544088633158765</v>
       </c>
       <c r="C6">
-        <v>0.6083714611887103</v>
+        <v>0.701942454241447</v>
       </c>
       <c r="D6">
-        <v>0.006261592021068907</v>
+        <v>0.004156106104852064</v>
       </c>
       <c r="E6">
-        <v>0.01040777420774769</v>
+        <v>0.01882624099606145</v>
       </c>
       <c r="F6">
-        <v>2.581137753600828</v>
+        <v>1.843181378767696</v>
       </c>
       <c r="G6">
-        <v>0.0008506220475394767</v>
+        <v>0.04864412847738864</v>
       </c>
       <c r="H6">
-        <v>0.02934875322187924</v>
+        <v>0.01469131475286811</v>
       </c>
       <c r="I6">
-        <v>0.03493313984809987</v>
+        <v>0.01559964965230876</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.479114877514007</v>
+        <v>0.9629262246347352</v>
       </c>
       <c r="L6">
-        <v>0.03923375187772393</v>
+        <v>0.4136935382107509</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.3129209586704818</v>
       </c>
       <c r="N6">
-        <v>0.2551145496560565</v>
+        <v>0.0424835892560349</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.3025832442578178</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.674632573584461</v>
+        <v>2.668089992351781</v>
       </c>
       <c r="C7">
-        <v>0.6393088029898593</v>
+        <v>0.7330982245287601</v>
       </c>
       <c r="D7">
-        <v>0.006554487245011842</v>
+        <v>0.004130215547043292</v>
       </c>
       <c r="E7">
-        <v>0.01087598989484767</v>
+        <v>0.01920117245235498</v>
       </c>
       <c r="F7">
-        <v>2.647781477306708</v>
+        <v>1.865968199246041</v>
       </c>
       <c r="G7">
-        <v>0.0008488237393569988</v>
+        <v>0.04615568816302318</v>
       </c>
       <c r="H7">
-        <v>0.0270970021653778</v>
+        <v>0.01349482969823368</v>
       </c>
       <c r="I7">
-        <v>0.03245587572591635</v>
+        <v>0.01448750146550903</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.510398755487827</v>
+        <v>0.9664072342636985</v>
       </c>
       <c r="L7">
-        <v>0.04060434962609705</v>
+        <v>0.4123246202784898</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.3160858152286536</v>
       </c>
       <c r="N7">
-        <v>0.2664602787796042</v>
+        <v>0.0432248376277804</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3156775312201887</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.211125000704726</v>
+        <v>3.21501100750686</v>
       </c>
       <c r="C8">
-        <v>0.7758397886790931</v>
+        <v>0.8809927027975846</v>
       </c>
       <c r="D8">
-        <v>0.008079460830050067</v>
+        <v>0.00426229527629074</v>
       </c>
       <c r="E8">
-        <v>0.01301475387751727</v>
+        <v>0.02083127004855645</v>
       </c>
       <c r="F8">
-        <v>2.957084880641787</v>
+        <v>2.015235166683183</v>
       </c>
       <c r="G8">
-        <v>0.0008411129191582267</v>
+        <v>0.03593856016319741</v>
       </c>
       <c r="H8">
-        <v>0.01844553588230013</v>
+        <v>0.008860416085424816</v>
       </c>
       <c r="I8">
-        <v>0.02267804052440603</v>
+        <v>0.009928547332557436</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.658281453980976</v>
+        <v>1.009943587737013</v>
       </c>
       <c r="L8">
-        <v>0.04687616580736176</v>
+        <v>0.4175713473234737</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.3410481705765633</v>
       </c>
       <c r="N8">
-        <v>0.3161101617941284</v>
+        <v>0.04679785052385199</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3735941633079136</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.272502267763457</v>
+        <v>4.288671996188384</v>
       </c>
       <c r="C9">
-        <v>1.048549019550705</v>
+        <v>1.192464603647977</v>
       </c>
       <c r="D9">
-        <v>0.01158388613172079</v>
+        <v>0.004754201474561626</v>
       </c>
       <c r="E9">
-        <v>0.01756550475130914</v>
+        <v>0.02401137150343424</v>
       </c>
       <c r="F9">
-        <v>3.596220783162124</v>
+        <v>2.390824193111357</v>
       </c>
       <c r="G9">
-        <v>0.0008268197090475661</v>
+        <v>0.0184530902524731</v>
       </c>
       <c r="H9">
-        <v>0.006755321021664762</v>
+        <v>0.002772000535474106</v>
       </c>
       <c r="I9">
-        <v>0.009071736962584787</v>
+        <v>0.003684268988301653</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.967218882366808</v>
+        <v>1.141448991895849</v>
       </c>
       <c r="L9">
-        <v>0.05984805065373955</v>
+        <v>0.4435170657683614</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.4133024767137812</v>
       </c>
       <c r="N9">
-        <v>0.4137193704096518</v>
+        <v>0.054296392210337</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4883388526416184</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.06082089036579</v>
+        <v>5.078594866922685</v>
       </c>
       <c r="C10">
-        <v>1.256302143480013</v>
+        <v>1.390967680813844</v>
       </c>
       <c r="D10">
-        <v>0.01377788263065582</v>
+        <v>0.005327495606525234</v>
       </c>
       <c r="E10">
-        <v>0.02109578820132851</v>
+        <v>0.02633892764707901</v>
       </c>
       <c r="F10">
-        <v>3.983944676575163</v>
+        <v>2.504464772235522</v>
       </c>
       <c r="G10">
-        <v>0.0008170516726795181</v>
+        <v>0.01821701700416156</v>
       </c>
       <c r="H10">
-        <v>0.002314967537081269</v>
+        <v>0.0008708234362280187</v>
       </c>
       <c r="I10">
-        <v>0.003694471645622421</v>
+        <v>0.001784499330803158</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.139763964268425</v>
+        <v>1.147419125876844</v>
       </c>
       <c r="L10">
-        <v>0.06748864380929298</v>
+        <v>0.4282866060705217</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.4354972027189632</v>
       </c>
       <c r="N10">
-        <v>0.4762483703043898</v>
+        <v>0.05826680056502687</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5598171056202546</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.416486460020394</v>
+        <v>5.432809514615599</v>
       </c>
       <c r="C11">
-        <v>1.350725011142572</v>
+        <v>1.403323718859269</v>
       </c>
       <c r="D11">
-        <v>0.01155348401213629</v>
+        <v>0.008043927943934825</v>
       </c>
       <c r="E11">
-        <v>0.02330259231636633</v>
+        <v>0.02698775179949942</v>
       </c>
       <c r="F11">
-        <v>3.467192695525881</v>
+        <v>1.978265680694832</v>
       </c>
       <c r="G11">
-        <v>0.0008145510291786007</v>
+        <v>0.05160730157715321</v>
       </c>
       <c r="H11">
-        <v>0.02053485949382505</v>
+        <v>0.01941600527937482</v>
       </c>
       <c r="I11">
-        <v>0.003359193339934841</v>
+        <v>0.002210165720208934</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.790130503307125</v>
+        <v>0.8471313304017656</v>
       </c>
       <c r="L11">
-        <v>0.05914090837378971</v>
+        <v>0.3158072112728334</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3244726417332444</v>
       </c>
       <c r="N11">
-        <v>0.4133487069550057</v>
+        <v>0.0586053765003367</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.481905148265426</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.54921180816774</v>
+        <v>5.56531186726636</v>
       </c>
       <c r="C12">
-        <v>1.382812330945512</v>
+        <v>1.388441269943996</v>
       </c>
       <c r="D12">
-        <v>0.009911216810042589</v>
+        <v>0.01037462618467266</v>
       </c>
       <c r="E12">
-        <v>0.0266373439500196</v>
+        <v>0.02867839868013622</v>
       </c>
       <c r="F12">
-        <v>3.003854697790871</v>
+        <v>1.6264487653348</v>
       </c>
       <c r="G12">
-        <v>0.0008142764822740525</v>
+        <v>0.07622764025084194</v>
       </c>
       <c r="H12">
-        <v>0.05935118755442659</v>
+        <v>0.05819926046856949</v>
       </c>
       <c r="I12">
-        <v>0.003303242804499007</v>
+        <v>0.002208719139160209</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.502450144970382</v>
+        <v>0.6657807744800337</v>
       </c>
       <c r="L12">
-        <v>0.06019793376703575</v>
+        <v>0.2513181085408434</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2536586207677445</v>
       </c>
       <c r="N12">
-        <v>0.3502159189242207</v>
+        <v>0.06715927636673769</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.4064094531626949</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.516564702386518</v>
+        <v>5.53370230900083</v>
       </c>
       <c r="C13">
-        <v>1.37130631125882</v>
+        <v>1.367976241937299</v>
       </c>
       <c r="D13">
-        <v>0.008177405619782974</v>
+        <v>0.01086070250508264</v>
       </c>
       <c r="E13">
-        <v>0.03091877239780416</v>
+        <v>0.03193260952971499</v>
       </c>
       <c r="F13">
-        <v>2.532433261339946</v>
+        <v>1.383886880177542</v>
       </c>
       <c r="G13">
-        <v>0.0008157570281519938</v>
+        <v>0.07114630861582683</v>
       </c>
       <c r="H13">
-        <v>0.1157040924049539</v>
+        <v>0.1141966754276353</v>
       </c>
       <c r="I13">
-        <v>0.003842407877862719</v>
+        <v>0.002336475230300117</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.229587782969972</v>
+        <v>0.5538458352903959</v>
       </c>
       <c r="L13">
-        <v>0.0680772069243929</v>
+        <v>0.2135401065136584</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2073404086331685</v>
       </c>
       <c r="N13">
-        <v>0.2851195145331218</v>
+        <v>0.08146027889368312</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.3303634322401621</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.419066110255301</v>
+        <v>5.437179984386376</v>
       </c>
       <c r="C14">
-        <v>1.344279821968939</v>
+        <v>1.350871051049978</v>
       </c>
       <c r="D14">
-        <v>0.006911112158903165</v>
+        <v>0.01033265190073962</v>
       </c>
       <c r="E14">
-        <v>0.03458857680294436</v>
+        <v>0.03552965032982414</v>
       </c>
       <c r="F14">
-        <v>2.202489413565871</v>
+        <v>1.252103919440373</v>
       </c>
       <c r="G14">
-        <v>0.0008175828970174402</v>
+        <v>0.05532611238480456</v>
       </c>
       <c r="H14">
-        <v>0.1657441563591533</v>
+        <v>0.163799136919252</v>
       </c>
       <c r="I14">
-        <v>0.004675558735453222</v>
+        <v>0.002623757080301381</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.0481760359513</v>
+        <v>0.4991651449084955</v>
       </c>
       <c r="L14">
-        <v>0.07787024378311358</v>
+        <v>0.1959137436736391</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1834930565353297</v>
       </c>
       <c r="N14">
-        <v>0.2399947334593548</v>
+        <v>0.09468721333252716</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2781742511258756</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.360181410593498</v>
+        <v>5.37862414332659</v>
       </c>
       <c r="C15">
-        <v>1.329292943068253</v>
+        <v>1.345123452377038</v>
       </c>
       <c r="D15">
-        <v>0.006492688633958466</v>
+        <v>0.009910391205567137</v>
       </c>
       <c r="E15">
-        <v>0.03537381195789102</v>
+        <v>0.03660894687548755</v>
       </c>
       <c r="F15">
-        <v>2.113036291482729</v>
+        <v>1.230429172373334</v>
       </c>
       <c r="G15">
-        <v>0.000818434385591328</v>
+        <v>0.04727222783233742</v>
       </c>
       <c r="H15">
-        <v>0.1785962759976485</v>
+        <v>0.1764342759503421</v>
       </c>
       <c r="I15">
-        <v>0.005200094025217261</v>
+        <v>0.002891910178114188</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.001455863759929</v>
+        <v>0.4921964788956572</v>
       </c>
       <c r="L15">
-        <v>0.08052494880575978</v>
+        <v>0.1940606577505299</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1798442418122548</v>
       </c>
       <c r="N15">
-        <v>0.2283599833295824</v>
+        <v>0.09794784691764136</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2648675083004548</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.026129640687429</v>
+        <v>5.045093788872236</v>
       </c>
       <c r="C16">
-        <v>1.242511590505046</v>
+        <v>1.315124292989708</v>
       </c>
       <c r="D16">
-        <v>0.005715572599644503</v>
+        <v>0.007737159963107754</v>
       </c>
       <c r="E16">
-        <v>0.03276577751346643</v>
+        <v>0.03636013480528533</v>
       </c>
       <c r="F16">
-        <v>2.045861258200489</v>
+        <v>1.333504279855546</v>
       </c>
       <c r="G16">
-        <v>0.0008223127208883688</v>
+        <v>0.02082256226372614</v>
       </c>
       <c r="H16">
-        <v>0.1677060289915744</v>
+        <v>0.1644046298995505</v>
       </c>
       <c r="I16">
-        <v>0.007377963748742999</v>
+        <v>0.003680334329403401</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9842112049433354</v>
+        <v>0.5552997263122492</v>
       </c>
       <c r="L16">
-        <v>0.07554887625239104</v>
+        <v>0.219002349132623</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2007743969046878</v>
       </c>
       <c r="N16">
-        <v>0.21737428076014</v>
+        <v>0.09209307007456147</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2538974028352072</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.822463493090481</v>
+        <v>4.841060216068001</v>
       </c>
       <c r="C17">
-        <v>1.190703069245785</v>
+        <v>1.29266063693558</v>
       </c>
       <c r="D17">
-        <v>0.005770726949302585</v>
+        <v>0.006924002998428602</v>
       </c>
       <c r="E17">
-        <v>0.02866838653670278</v>
+        <v>0.03346337600660831</v>
       </c>
       <c r="F17">
-        <v>2.164048351335254</v>
+        <v>1.473213486691591</v>
       </c>
       <c r="G17">
-        <v>0.0008243332451913472</v>
+        <v>0.01593201668675626</v>
       </c>
       <c r="H17">
-        <v>0.1310431940129746</v>
+        <v>0.1270765137397092</v>
       </c>
       <c r="I17">
-        <v>0.008696385735646572</v>
+        <v>0.004199329632754711</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.063198669724208</v>
+        <v>0.6315927976586977</v>
       </c>
       <c r="L17">
-        <v>0.06570241370219421</v>
+        <v>0.2482367169960824</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2279760788870746</v>
       </c>
       <c r="N17">
-        <v>0.2321393198440092</v>
+        <v>0.08040544815959194</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2722091086583589</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.70643734778298</v>
+        <v>4.72474975661288</v>
       </c>
       <c r="C18">
-        <v>1.160787595207182</v>
+        <v>1.284689456443743</v>
       </c>
       <c r="D18">
-        <v>0.006803919583546758</v>
+        <v>0.006331563460155953</v>
       </c>
       <c r="E18">
-        <v>0.02385381766226846</v>
+        <v>0.02922404436593773</v>
       </c>
       <c r="F18">
-        <v>2.481607795677292</v>
+        <v>1.705633289597941</v>
       </c>
       <c r="G18">
-        <v>0.0008248685170399099</v>
+        <v>0.01479379900046718</v>
       </c>
       <c r="H18">
-        <v>0.07843064261235355</v>
+        <v>0.07433345258591117</v>
       </c>
       <c r="I18">
-        <v>0.008760967476868942</v>
+        <v>0.004032373833797287</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.254398304243736</v>
+        <v>0.7526352757027226</v>
       </c>
       <c r="L18">
-        <v>0.05492147353367116</v>
+        <v>0.2932069116835549</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2733304555733582</v>
       </c>
       <c r="N18">
-        <v>0.272707562791922</v>
+        <v>0.06603347960511385</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.320744774020767</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.668669291183278</v>
+        <v>4.687001555782842</v>
       </c>
       <c r="C19">
-        <v>1.154305061499542</v>
+        <v>1.297240925043866</v>
       </c>
       <c r="D19">
-        <v>0.008487410229754744</v>
+        <v>0.00579657067344197</v>
       </c>
       <c r="E19">
-        <v>0.02030160679253168</v>
+        <v>0.02591338125312648</v>
       </c>
       <c r="F19">
-        <v>2.941794581844789</v>
+        <v>2.007243146560825</v>
       </c>
       <c r="G19">
-        <v>0.0008241122761648981</v>
+        <v>0.01386389330819959</v>
       </c>
       <c r="H19">
-        <v>0.03240864379333885</v>
+        <v>0.0287170209880756</v>
       </c>
       <c r="I19">
-        <v>0.00831285615346733</v>
+        <v>0.003964008455499268</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.529592397010362</v>
+        <v>0.9086389130116999</v>
       </c>
       <c r="L19">
-        <v>0.05093444045547457</v>
+        <v>0.3502027734801842</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3331253653675361</v>
       </c>
       <c r="N19">
-        <v>0.3365413560974702</v>
+        <v>0.05624606206428595</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3963280274820704</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.852813054961814</v>
+        <v>4.871251928527329</v>
       </c>
       <c r="C20">
-        <v>1.207286628373197</v>
+        <v>1.363921468165643</v>
       </c>
       <c r="D20">
-        <v>0.01242784356551496</v>
+        <v>0.005118124432281324</v>
       </c>
       <c r="E20">
-        <v>0.0201049702232452</v>
+        <v>0.02564793716446356</v>
       </c>
       <c r="F20">
-        <v>3.82984303605042</v>
+        <v>2.506311346847909</v>
       </c>
       <c r="G20">
-        <v>0.0008197039490263172</v>
+        <v>0.01281929686405192</v>
       </c>
       <c r="H20">
-        <v>0.003253449964540245</v>
+        <v>0.001186602607277987</v>
       </c>
       <c r="I20">
-        <v>0.005708854970790433</v>
+        <v>0.003081522420741223</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.058096730990641</v>
+        <v>1.160475887444662</v>
       </c>
       <c r="L20">
-        <v>0.0646969899773886</v>
+        <v>0.4374694436332334</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.4352699969842391</v>
       </c>
       <c r="N20">
-        <v>0.4618758208618061</v>
+        <v>0.05727730256966845</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5436228991681702</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.462423287924537</v>
+        <v>5.476176852811705</v>
       </c>
       <c r="C21">
-        <v>1.369082477433778</v>
+        <v>1.415656230652587</v>
       </c>
       <c r="D21">
-        <v>0.01489386145393112</v>
+        <v>0.007959136405844447</v>
       </c>
       <c r="E21">
-        <v>0.02315480519827573</v>
+        <v>0.02838538040037974</v>
       </c>
       <c r="F21">
-        <v>4.264041025700635</v>
+        <v>2.34080516300061</v>
       </c>
       <c r="G21">
-        <v>0.0008119822290005721</v>
+        <v>0.07174391622246645</v>
       </c>
       <c r="H21">
-        <v>0.0006859771154146266</v>
+        <v>0.0001939200244458483</v>
       </c>
       <c r="I21">
-        <v>0.002759045767847468</v>
+        <v>0.002268639440374365</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.275386766451035</v>
+        <v>1.029096879133242</v>
       </c>
       <c r="L21">
-        <v>0.07417154138708604</v>
+        <v>0.3785792429001518</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.398430396628271</v>
       </c>
       <c r="N21">
-        <v>0.5270514725967104</v>
+        <v>0.05962668954392125</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.6139317342056501</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.863642589044275</v>
+        <v>5.871903685334246</v>
       </c>
       <c r="C22">
-        <v>1.473939915532981</v>
+        <v>1.438848772653614</v>
       </c>
       <c r="D22">
-        <v>0.01668010760841199</v>
+        <v>0.01263390543632958</v>
       </c>
       <c r="E22">
-        <v>0.02519153542777719</v>
+        <v>0.03051804003326408</v>
       </c>
       <c r="F22">
-        <v>4.529930896345775</v>
+        <v>2.205616010481876</v>
       </c>
       <c r="G22">
-        <v>0.000807077404578506</v>
+        <v>0.1592601032030743</v>
       </c>
       <c r="H22">
-        <v>5.761790472735839E-05</v>
+        <v>5.544645942823223E-06</v>
       </c>
       <c r="I22">
-        <v>0.001581328851926855</v>
+        <v>0.001724671978246661</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.407313309958028</v>
+        <v>0.9335345368547507</v>
       </c>
       <c r="L22">
-        <v>0.07971934495935606</v>
+        <v>0.3384435937825003</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3691985686411314</v>
       </c>
       <c r="N22">
-        <v>0.5633294911103235</v>
+        <v>0.06086464827979743</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6521044385699355</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.649364595767167</v>
+        <v>5.661133283941638</v>
       </c>
       <c r="C23">
-        <v>1.415476220410312</v>
+        <v>1.438733488473247</v>
       </c>
       <c r="D23">
-        <v>0.01600868013972345</v>
+        <v>0.009049878029326663</v>
       </c>
       <c r="E23">
-        <v>0.02410641841307892</v>
+        <v>0.02920750361452784</v>
       </c>
       <c r="F23">
-        <v>4.406364461610792</v>
+        <v>2.331948921701382</v>
       </c>
       <c r="G23">
-        <v>0.0008096485156552156</v>
+        <v>0.09404538837787868</v>
       </c>
       <c r="H23">
-        <v>0.0003007494731139815</v>
+        <v>6.473982898214103E-05</v>
       </c>
       <c r="I23">
-        <v>0.001785740372873157</v>
+        <v>0.001594741631391727</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.349939050979003</v>
+        <v>1.013667581319204</v>
       </c>
       <c r="L23">
-        <v>0.0770124495129263</v>
+        <v>0.3697326640926946</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3967304107074128</v>
       </c>
       <c r="N23">
-        <v>0.5429276138933972</v>
+        <v>0.06055319360122713</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6314911784312187</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.843439284560418</v>
+        <v>4.861854791457745</v>
       </c>
       <c r="C24">
-        <v>1.201554037561891</v>
+        <v>1.3612096710591</v>
       </c>
       <c r="D24">
-        <v>0.01311029068089198</v>
+        <v>0.005042982444783739</v>
       </c>
       <c r="E24">
-        <v>0.02017641313695828</v>
+        <v>0.02575043143853928</v>
       </c>
       <c r="F24">
-        <v>3.914128538239254</v>
+        <v>2.563430037300861</v>
       </c>
       <c r="G24">
-        <v>0.0008195933348758011</v>
+        <v>0.01254098794222003</v>
       </c>
       <c r="H24">
-        <v>0.00302084069841313</v>
+        <v>0.001011362443394503</v>
       </c>
       <c r="I24">
-        <v>0.005114067313319204</v>
+        <v>0.002443097663279659</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.11373831180272</v>
+        <v>1.193811135165546</v>
       </c>
       <c r="L24">
-        <v>0.06661790986500371</v>
+        <v>0.4496710147526741</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4480230498062383</v>
       </c>
       <c r="N24">
-        <v>0.4680629287015847</v>
+        <v>0.05805637057566404</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5514449355398483</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.983967058300379</v>
+        <v>3.99795510964077</v>
       </c>
       <c r="C25">
-        <v>0.9772085434575501</v>
+        <v>1.118461455540228</v>
       </c>
       <c r="D25">
-        <v>0.01018399131234915</v>
+        <v>0.004641949699533576</v>
       </c>
       <c r="E25">
-        <v>0.01627185855790275</v>
+        <v>0.02311216298685415</v>
       </c>
       <c r="F25">
-        <v>3.394313908724087</v>
+        <v>2.297232083307847</v>
       </c>
       <c r="G25">
-        <v>0.0008306606387765325</v>
+        <v>0.02123341495721576</v>
       </c>
       <c r="H25">
-        <v>0.009338803532929069</v>
+        <v>0.004030713317684564</v>
       </c>
       <c r="I25">
-        <v>0.01258172046826012</v>
+        <v>0.005506686227312763</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.863658297881287</v>
+        <v>1.10895555385023</v>
       </c>
       <c r="L25">
-        <v>0.05589872063338142</v>
+        <v>0.4380092764745314</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3940717182147395</v>
       </c>
       <c r="N25">
-        <v>0.3885917348808476</v>
+        <v>0.05225113699496164</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4587647528604037</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
